--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1773,289 +1773,289 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Minimum</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>RTH</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>RTH</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>9</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" t="n">
         <v>6</v>
       </c>
-      <c r="B94" s="2" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" t="n">
         <v>3</v>
       </c>
-      <c r="E94" s="2" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L94" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" t="n">
         <v>6</v>
       </c>
-      <c r="B95" s="2" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" t="n">
         <v>4</v>
       </c>
-      <c r="E95" s="2" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" s="2" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K95" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="2" t="inlineStr">
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" t="n">
         <v>6</v>
       </c>
-      <c r="B96" s="2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" t="n">
         <v>5</v>
       </c>
-      <c r="E96" s="2" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" s="2" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="2" t="inlineStr">
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/123/word_level_predictions_123.xlsx
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G26" t="b">
@@ -1797,265 +1797,265 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>8</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>9</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G64" t="b">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G65" t="b">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5286,156 +5286,156 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D94" t="n">
+      <c r="D94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D95" t="n">
+      <c r="D95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="G95" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K95" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D96" t="n">
+      <c r="D96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="G96" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="F248" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G248" s="2" t="b">
@@ -13329,11 +13329,11 @@
         </is>
       </c>
       <c r="I248" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K248" s="2" t="b">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="L248" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13381,11 +13381,11 @@
         </is>
       </c>
       <c r="I249" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K249" s="2" t="b">
@@ -13433,11 +13433,11 @@
         </is>
       </c>
       <c r="I250" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K250" s="2" t="b">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13485,11 +13485,11 @@
         </is>
       </c>
       <c r="I251" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13537,11 +13537,11 @@
         </is>
       </c>
       <c r="I252" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13589,11 +13589,11 @@
         </is>
       </c>
       <c r="I253" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K253" s="2" t="b">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13641,11 +13641,11 @@
         </is>
       </c>
       <c r="I254" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13681,7 +13681,7 @@
       </c>
       <c r="F255" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G255" s="2" t="b">
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="L255" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
